--- a/vignettes/course_docs/Fall_2022_schedule.xlsx
+++ b/vignettes/course_docs/Fall_2022_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CAFDC-51F9-1A42-BBE3-02B242CF9B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF855D-8DF6-A64E-96F4-BDB419EC23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="520" windowWidth="23940" windowHeight="26660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35260" yWindow="-3820" windowWidth="23940" windowHeight="26660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Week</t>
   </si>
@@ -147,9 +147,6 @@
     <t>W 9/28/22 \n TH 9/29/22</t>
   </si>
   <si>
-    <t>M 10/3/22 \n W 10/12/22</t>
-  </si>
-  <si>
     <t>M 10/17/22 \n W 10/19/22</t>
   </si>
   <si>
@@ -181,6 +178,18 @@
   </si>
   <si>
     <t xml:space="preserve">[Judgment and Decision Making](https://crumplab.com/cognition/articles/modules/L12_JDM.html) </t>
+  </si>
+  <si>
+    <t>(Reading on Blackboard)</t>
+  </si>
+  <si>
+    <t>Online Experiment</t>
+  </si>
+  <si>
+    <t>M 10/3/22</t>
+  </si>
+  <si>
+    <t>W 10/12/22</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFB29"/>
+  <dimension ref="A1:XFB30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8830,7 +8839,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -8841,21 +8850,22 @@
     </row>
     <row r="11" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="102" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -8863,14 +8873,13 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="85" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -8878,13 +8887,14 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="85" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -8895,10 +8905,10 @@
     </row>
     <row r="15" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="68" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -8909,13 +8919,13 @@
     </row>
     <row r="16" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="68" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -8923,13 +8933,13 @@
     </row>
     <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -8937,41 +8947,55 @@
     </row>
     <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E21" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
